--- a/Genomic Selection_SALVA/data/field_data_scaled.xlsx
+++ b/Genomic Selection_SALVA/data/field_data_scaled.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salva\Documents\GitHub\Genomic-Selection\Genomic Selection_SALVA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12E71AB-5625-4724-8442-3C886A425385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9F7C7-DDD5-4F6F-B2FD-923FCFD4C474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5A709E2-BD2D-41B8-A571-6321ECE092C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5A709E2-BD2D-41B8-A571-6321ECE092C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$2:$E$2881</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$2:$F$2881</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$2:$E$2881</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$2:$F$2881</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -448,7 +458,7 @@
   <dimension ref="A1:F2881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
